--- a/Results/Excel/TC07_AddVaccine_Result.xlsx
+++ b/Results/Excel/TC07_AddVaccine_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8F9544-2DDD-4E5E-8685-ABCDFF3B03EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9171C545-D7C9-4F7E-A721-BC7A79B37EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -594,6 +594,13 @@
       <sz val="8"/>
       <name val="Mic Shell Dlg"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -649,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -673,6 +680,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -981,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="O39" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="T56" sqref="T56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1119,10 +1129,10 @@
       <c r="P2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="4" t="s">
@@ -1181,14 +1191,14 @@
       <c r="P3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>40</v>
+      <c r="Q3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>41</v>
@@ -1243,14 +1253,14 @@
       <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>40</v>
+      <c r="Q4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>41</v>
@@ -1305,10 +1315,10 @@
       <c r="P5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="4" t="s">
+      <c r="Q5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S5" s="4" t="s">
@@ -1367,10 +1377,10 @@
       <c r="P6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="4" t="s">
+      <c r="Q6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S6" s="4" t="s">
@@ -1427,10 +1437,10 @@
       <c r="P7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="4" t="s">
@@ -1489,10 +1499,10 @@
       <c r="P8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="4" t="s">
+      <c r="Q8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S8" s="4" t="s">
@@ -1551,10 +1561,10 @@
       <c r="P9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="4" t="s">
+      <c r="Q9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S9" s="4" t="s">
@@ -1613,10 +1623,10 @@
       <c r="P10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="4" t="s">
+      <c r="Q10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S10" s="4" t="s">
@@ -1673,10 +1683,10 @@
       <c r="P11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S11" s="4" t="s">
@@ -1735,10 +1745,10 @@
       <c r="P12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="4" t="s">
+      <c r="Q12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S12" s="4" t="s">
@@ -1797,10 +1807,10 @@
       <c r="P13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R13" s="4" t="s">
+      <c r="Q13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="4" t="s">
@@ -1857,10 +1867,10 @@
       <c r="P14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S14" s="4" t="s">
@@ -1919,10 +1929,10 @@
       <c r="P15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R15" s="4" t="s">
+      <c r="Q15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S15" s="4" t="s">
@@ -1981,10 +1991,10 @@
       <c r="P16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" s="4" t="s">
+      <c r="Q16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S16" s="4" t="s">
@@ -2041,10 +2051,10 @@
       <c r="P17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S17" s="4" t="s">
@@ -2103,14 +2113,14 @@
       <c r="P18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>40</v>
+      <c r="Q18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>80</v>
@@ -2165,14 +2175,14 @@
       <c r="P19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>40</v>
+      <c r="Q19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>80</v>
@@ -2227,14 +2237,14 @@
       <c r="P20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>40</v>
+      <c r="Q20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>80</v>
@@ -2289,14 +2299,14 @@
       <c r="P21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>40</v>
+      <c r="Q21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>80</v>
@@ -2351,10 +2361,10 @@
       <c r="P22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R22" s="4" t="s">
+      <c r="Q22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R22" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S22" s="4" t="s">
@@ -2413,10 +2423,10 @@
       <c r="P23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="4" t="s">
+      <c r="Q23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R23" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S23" s="4" t="s">
@@ -2473,10 +2483,10 @@
       <c r="P24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S24" s="4" t="s">
@@ -2535,10 +2545,10 @@
       <c r="P25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R25" s="4" t="s">
+      <c r="Q25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S25" s="4" t="s">
@@ -2597,10 +2607,10 @@
       <c r="P26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R26" s="4" t="s">
+      <c r="Q26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S26" s="4" t="s">
@@ -2659,10 +2669,10 @@
       <c r="P27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R27" s="4" t="s">
+      <c r="Q27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S27" s="4" t="s">
@@ -2721,10 +2731,10 @@
       <c r="P28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R28" s="4" t="s">
+      <c r="Q28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S28" s="4" t="s">
@@ -2781,10 +2791,10 @@
       <c r="P29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="Q29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S29" s="4" t="s">
@@ -2843,10 +2853,10 @@
       <c r="P30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R30" s="4" t="s">
+      <c r="Q30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S30" s="4" t="s">
@@ -2905,10 +2915,10 @@
       <c r="P31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R31" s="4" t="s">
+      <c r="Q31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S31" s="4" t="s">
@@ -2967,10 +2977,10 @@
       <c r="P32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R32" s="4" t="s">
+      <c r="Q32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S32" s="4" t="s">
@@ -3029,10 +3039,10 @@
       <c r="P33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R33" s="4" t="s">
+      <c r="Q33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S33" s="4" t="s">
@@ -3089,10 +3099,10 @@
       <c r="P34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="Q34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R34" s="4" t="s">
+      <c r="R34" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S34" s="4" t="s">
@@ -3151,10 +3161,10 @@
       <c r="P35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R35" s="4" t="s">
+      <c r="Q35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S35" s="4" t="s">
@@ -3213,10 +3223,10 @@
       <c r="P36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R36" s="4" t="s">
+      <c r="Q36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S36" s="4" t="s">
@@ -3275,10 +3285,10 @@
       <c r="P37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q37" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R37" s="4" t="s">
+      <c r="Q37" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S37" s="4" t="s">
@@ -3337,10 +3347,10 @@
       <c r="P38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R38" s="4" t="s">
+      <c r="Q38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R38" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S38" s="4" t="s">
@@ -3399,10 +3409,10 @@
       <c r="P39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q39" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R39" s="4" t="s">
+      <c r="Q39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R39" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S39" s="4" t="s">
@@ -3459,10 +3469,10 @@
       <c r="P40" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="Q40" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R40" s="4" t="s">
+      <c r="R40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S40" s="4" t="s">
@@ -3521,10 +3531,10 @@
       <c r="P41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R41" s="4" t="s">
+      <c r="Q41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R41" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S41" s="4" t="s">
@@ -3583,10 +3593,10 @@
       <c r="P42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R42" s="4" t="s">
+      <c r="Q42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R42" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S42" s="4" t="s">
@@ -3645,10 +3655,10 @@
       <c r="P43" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q43" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R43" s="4" t="s">
+      <c r="Q43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R43" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S43" s="4" t="s">
@@ -3707,10 +3717,10 @@
       <c r="P44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R44" s="4" t="s">
+      <c r="Q44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R44" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S44" s="4" t="s">
@@ -3767,10 +3777,10 @@
       <c r="P45" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R45" s="4" t="s">
+      <c r="R45" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S45" s="4" t="s">
@@ -3829,14 +3839,14 @@
       <c r="P46" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Q46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>40</v>
+      <c r="Q46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T46" s="4" t="s">
         <v>150</v>
@@ -3891,14 +3901,14 @@
       <c r="P47" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Q47" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R47" s="4" t="s">
-        <v>40</v>
+      <c r="Q47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R47" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>150</v>
@@ -3953,14 +3963,14 @@
       <c r="P48" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Q48" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R48" s="4" t="s">
-        <v>40</v>
+      <c r="Q48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R48" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T48" s="4" t="s">
         <v>150</v>
@@ -4015,14 +4025,14 @@
       <c r="P49" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Q49" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>40</v>
+      <c r="Q49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R49" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T49" s="4" t="s">
         <v>150</v>
@@ -4077,10 +4087,10 @@
       <c r="P50" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q50" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R50" s="4" t="s">
+      <c r="Q50" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R50" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S50" s="4" t="s">
@@ -4139,10 +4149,10 @@
       <c r="P51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="Q51" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R51" s="4" t="s">
+      <c r="R51" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S51" s="4" t="s">
@@ -4201,10 +4211,10 @@
       <c r="P52" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q52" s="4" t="s">
+      <c r="Q52" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R52" s="4" t="s">
+      <c r="R52" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S52" s="4" t="s">
@@ -4263,10 +4273,10 @@
       <c r="P53" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q53" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R53" s="4" t="s">
+      <c r="Q53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R53" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S53" s="4" t="s">
@@ -4325,10 +4335,10 @@
       <c r="P54" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q54" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R54" s="4" t="s">
+      <c r="Q54" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R54" s="8" t="s">
         <v>40</v>
       </c>
       <c r="S54" s="4" t="s">

--- a/Results/Excel/TC07_AddVaccine_Result.xlsx
+++ b/Results/Excel/TC07_AddVaccine_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9171C545-D7C9-4F7E-A721-BC7A79B37EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DB35E7-4028-4CAF-B266-F7B9E4F035AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="176">
   <si>
     <t>TDID</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อวัคซีนต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น"</t>
-  </si>
-  <si>
     <t>TD3</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>จำนวนเข็มต้องเป็นตัวเลขอารบิกและมีจำนวนตัวเลข 1-10 ตัวเลขเท่านั้น</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "จำนวนเข็มต้องเป็นตัวเลขอารบิก และห้ามมีช่องว่าง ตัวอักษร หรือตัวอักษรพิเศษ"</t>
-  </si>
-  <si>
     <t>TD18</t>
   </si>
   <si>
@@ -472,9 +466,6 @@
     <t>ราคาต่อเข็มต้องเป็นตัวเลขอารบิกและมีจำนวนตัวเลข 1-10 ตัวเลขเท่านั้น</t>
   </si>
   <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ราคาต่อเข็มต้องเป็นตัวเลขอารบิก และห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ"</t>
-  </si>
-  <si>
     <t>TD46</t>
   </si>
   <si>
@@ -541,22 +532,22 @@
     <t>1C 1082122/501 (NB)</t>
   </si>
   <si>
+    <t>TD53</t>
+  </si>
+  <si>
+    <t>1. วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson)</t>
+  </si>
+  <si>
+    <t>บริษัทไฟเซอร์ อิงก์ (Pfizer INC.) 2 บริษัท ไฟเซอร์</t>
+  </si>
+  <si>
+    <t>A1017321312321321525</t>
+  </si>
+  <si>
+    <t>1C 10823122/501 (NB)</t>
+  </si>
+  <si>
     <t>ควรแสดงข้อความแจ้งเตือนว่า "เพิ่มวัคซีนสำเร็จ"</t>
-  </si>
-  <si>
-    <t>TD53</t>
-  </si>
-  <si>
-    <t>1. วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson)</t>
-  </si>
-  <si>
-    <t>บริษัทไฟเซอร์ อิงก์ (Pfizer INC.) 2 บริษัท ไฟเซอร์</t>
-  </si>
-  <si>
-    <t>A1017321312321321525</t>
-  </si>
-  <si>
-    <t>1C 10823122/501 (NB)</t>
   </si>
 </sst>
 </file>
@@ -992,7 +983,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O39" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+      <selection activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1201,24 +1192,24 @@
         <v>34</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>24</v>
@@ -1263,24 +1254,24 @@
         <v>34</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>24</v>
@@ -1310,10 +1301,10 @@
         <v>31</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>40</v>
@@ -1325,24 +1316,24 @@
         <v>18</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>24</v>
@@ -1372,27 +1363,27 @@
         <v>31</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>40</v>
+      <c r="R6" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
@@ -1432,10 +1423,10 @@
         <v>31</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>33</v>
@@ -1452,7 +1443,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -1494,10 +1485,10 @@
         <v>31</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>40</v>
@@ -1509,27 +1500,27 @@
         <v>18</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>25</v>
@@ -1556,10 +1547,10 @@
         <v>31</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>40</v>
@@ -1571,27 +1562,27 @@
         <v>18</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>25</v>
@@ -1618,10 +1609,10 @@
         <v>31</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>40</v>
@@ -1633,12 +1624,12 @@
         <v>18</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -1678,10 +1669,10 @@
         <v>31</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>33</v>
@@ -1698,25 +1689,25 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>26</v>
@@ -1740,10 +1731,10 @@
         <v>31</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>40</v>
@@ -1755,12 +1746,12 @@
         <v>18</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -1802,10 +1793,10 @@
         <v>31</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>40</v>
@@ -1817,12 +1808,12 @@
         <v>18</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1862,10 +1853,10 @@
         <v>31</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>33</v>
@@ -1882,7 +1873,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -1903,7 +1894,7 @@
         <v>25</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>27</v>
@@ -1924,10 +1915,10 @@
         <v>31</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="8" t="s">
         <v>40</v>
@@ -1939,12 +1930,12 @@
         <v>18</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -1986,10 +1977,10 @@
         <v>31</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>40</v>
@@ -2001,12 +1992,12 @@
         <v>18</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>21</v>
@@ -2046,10 +2037,10 @@
         <v>31</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>33</v>
@@ -2066,31 +2057,31 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>28</v>
@@ -2108,10 +2099,10 @@
         <v>31</v>
       </c>
       <c r="O18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>40</v>
@@ -2123,12 +2114,12 @@
         <v>34</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>21</v>
@@ -2152,7 +2143,7 @@
         <v>26</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>28</v>
@@ -2170,10 +2161,10 @@
         <v>31</v>
       </c>
       <c r="O19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>40</v>
@@ -2185,12 +2176,12 @@
         <v>34</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -2214,7 +2205,7 @@
         <v>26</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>28</v>
@@ -2232,10 +2223,10 @@
         <v>31</v>
       </c>
       <c r="O20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="Q20" s="8" t="s">
         <v>40</v>
@@ -2247,12 +2238,12 @@
         <v>34</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
@@ -2276,7 +2267,7 @@
         <v>26</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>28</v>
@@ -2294,10 +2285,10 @@
         <v>31</v>
       </c>
       <c r="O21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="Q21" s="8" t="s">
         <v>40</v>
@@ -2309,12 +2300,12 @@
         <v>34</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -2338,7 +2329,7 @@
         <v>26</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>28</v>
@@ -2356,10 +2347,10 @@
         <v>31</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q22" s="8" t="s">
         <v>40</v>
@@ -2371,12 +2362,12 @@
         <v>18</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>21</v>
@@ -2400,7 +2391,7 @@
         <v>26</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>28</v>
@@ -2418,10 +2409,10 @@
         <v>31</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="8" t="s">
         <v>40</v>
@@ -2433,12 +2424,12 @@
         <v>18</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>21</v>
@@ -2478,10 +2469,10 @@
         <v>31</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>33</v>
@@ -2498,7 +2489,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>21</v>
@@ -2525,7 +2516,7 @@
         <v>27</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>28</v>
@@ -2540,10 +2531,10 @@
         <v>31</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="8" t="s">
         <v>40</v>
@@ -2555,12 +2546,12 @@
         <v>18</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>21</v>
@@ -2587,7 +2578,7 @@
         <v>27</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>28</v>
@@ -2602,10 +2593,10 @@
         <v>31</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="8" t="s">
         <v>40</v>
@@ -2617,12 +2608,12 @@
         <v>18</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
@@ -2649,7 +2640,7 @@
         <v>27</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>28</v>
@@ -2664,10 +2655,10 @@
         <v>31</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>40</v>
@@ -2679,12 +2670,12 @@
         <v>18</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
@@ -2711,7 +2702,7 @@
         <v>27</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>28</v>
@@ -2726,10 +2717,10 @@
         <v>31</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="8" t="s">
         <v>40</v>
@@ -2741,12 +2732,12 @@
         <v>18</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>21</v>
@@ -2786,10 +2777,10 @@
         <v>31</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="9" t="s">
         <v>33</v>
@@ -2806,7 +2797,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>21</v>
@@ -2836,7 +2827,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>29</v>
@@ -2848,10 +2839,10 @@
         <v>31</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q30" s="8" t="s">
         <v>40</v>
@@ -2863,12 +2854,12 @@
         <v>18</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
@@ -2898,7 +2889,7 @@
         <v>28</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>29</v>
@@ -2910,10 +2901,10 @@
         <v>31</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="8" t="s">
         <v>40</v>
@@ -2925,12 +2916,12 @@
         <v>18</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>21</v>
@@ -2960,7 +2951,7 @@
         <v>28</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>29</v>
@@ -2972,10 +2963,10 @@
         <v>31</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="8" t="s">
         <v>40</v>
@@ -2987,12 +2978,12 @@
         <v>18</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>21</v>
@@ -3022,7 +3013,7 @@
         <v>28</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>29</v>
@@ -3034,10 +3025,10 @@
         <v>31</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="8" t="s">
         <v>40</v>
@@ -3049,12 +3040,12 @@
         <v>18</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>21</v>
@@ -3094,10 +3085,10 @@
         <v>31</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q34" s="9" t="s">
         <v>33</v>
@@ -3114,7 +3105,7 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>21</v>
@@ -3147,7 +3138,7 @@
         <v>28</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>30</v>
@@ -3156,10 +3147,10 @@
         <v>31</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q35" s="8" t="s">
         <v>40</v>
@@ -3171,12 +3162,12 @@
         <v>18</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>21</v>
@@ -3209,7 +3200,7 @@
         <v>28</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>30</v>
@@ -3218,10 +3209,10 @@
         <v>31</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q36" s="8" t="s">
         <v>40</v>
@@ -3233,12 +3224,12 @@
         <v>18</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>21</v>
@@ -3271,7 +3262,7 @@
         <v>28</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>30</v>
@@ -3280,10 +3271,10 @@
         <v>31</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q37" s="8" t="s">
         <v>40</v>
@@ -3295,12 +3286,12 @@
         <v>18</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>21</v>
@@ -3333,7 +3324,7 @@
         <v>28</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>30</v>
@@ -3342,10 +3333,10 @@
         <v>31</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q38" s="8" t="s">
         <v>40</v>
@@ -3357,12 +3348,12 @@
         <v>18</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>21</v>
@@ -3395,7 +3386,7 @@
         <v>28</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>30</v>
@@ -3404,10 +3395,10 @@
         <v>31</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q39" s="8" t="s">
         <v>40</v>
@@ -3419,12 +3410,12 @@
         <v>18</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>21</v>
@@ -3464,10 +3455,10 @@
         <v>31</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q40" s="9" t="s">
         <v>33</v>
@@ -3484,7 +3475,7 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
@@ -3520,16 +3511,16 @@
         <v>29</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q41" s="8" t="s">
         <v>40</v>
@@ -3541,12 +3532,12 @@
         <v>18</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>21</v>
@@ -3582,16 +3573,16 @@
         <v>29</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q42" s="8" t="s">
         <v>40</v>
@@ -3603,12 +3594,12 @@
         <v>18</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>21</v>
@@ -3644,16 +3635,16 @@
         <v>29</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q43" s="8" t="s">
         <v>40</v>
@@ -3665,12 +3656,12 @@
         <v>18</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>21</v>
@@ -3706,16 +3697,16 @@
         <v>29</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q44" s="8" t="s">
         <v>40</v>
@@ -3727,12 +3718,12 @@
         <v>18</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>21</v>
@@ -3772,10 +3763,10 @@
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q45" s="9" t="s">
         <v>33</v>
@@ -3792,7 +3783,7 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>21</v>
@@ -3831,13 +3822,13 @@
         <v>30</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>40</v>
@@ -3849,12 +3840,12 @@
         <v>34</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>21</v>
@@ -3893,13 +3884,13 @@
         <v>30</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q47" s="8" t="s">
         <v>40</v>
@@ -3911,12 +3902,12 @@
         <v>34</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>21</v>
@@ -3955,13 +3946,13 @@
         <v>30</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q48" s="8" t="s">
         <v>40</v>
@@ -3973,12 +3964,12 @@
         <v>34</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>21</v>
@@ -4017,13 +4008,13 @@
         <v>30</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q49" s="8" t="s">
         <v>40</v>
@@ -4035,12 +4026,12 @@
         <v>34</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>21</v>
@@ -4079,13 +4070,13 @@
         <v>30</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q50" s="8" t="s">
         <v>40</v>
@@ -4097,12 +4088,12 @@
         <v>18</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>21</v>
@@ -4126,7 +4117,7 @@
         <v>26</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>28</v>
@@ -4141,13 +4132,13 @@
         <v>30</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q51" s="9" t="s">
         <v>33</v>
@@ -4164,52 +4155,52 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L52" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="N52" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q52" s="9" t="s">
         <v>33</v>
@@ -4226,49 +4217,49 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="K53" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L53" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="4" t="s">
+      <c r="M53" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="N53" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>39</v>
@@ -4283,12 +4274,12 @@
         <v>18</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>21</v>
@@ -4300,7 +4291,7 @@
         <v>23</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>24</v>
@@ -4315,22 +4306,22 @@
         <v>27</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>39</v>
@@ -4345,7 +4336,7 @@
         <v>18</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Excel/TC07_AddVaccine_Result.xlsx
+++ b/Results/Excel/TC07_AddVaccine_Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DB35E7-4028-4CAF-B266-F7B9E4F035AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55685ABB-17FC-440F-911D-3677770F1A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,388 +163,388 @@
     <t>เพิ่มวัคซีนสำเร็จ</t>
   </si>
   <si>
+    <t>TD5</t>
+  </si>
+  <si>
+    <t>1. วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson).</t>
+  </si>
+  <si>
+    <t>ชื่อวัคซีนต้องมีจำนวนตัวอักษร 2-50 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD6</t>
+  </si>
+  <si>
+    <t>กรุณาเลือกวันที่นำเข้า</t>
+  </si>
+  <si>
+    <t>TD7</t>
+  </si>
+  <si>
+    <t>วันที่นำเข้าห้ามเป็นวันในอนาคต และต้องเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่นำเข้าห้ามเป็นวันในอนาคต และต้องเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ"</t>
+  </si>
+  <si>
+    <t>TD8</t>
+  </si>
+  <si>
+    <t>วันที่น้อยกว่าวันที่ผลิต</t>
+  </si>
+  <si>
+    <t>TD9</t>
+  </si>
+  <si>
+    <t>วันที่มากกว่าวันที่หมดอายุ</t>
+  </si>
+  <si>
+    <t>TD10</t>
+  </si>
+  <si>
+    <t>กรุณาเลือกวันที่ผลิต</t>
+  </si>
+  <si>
+    <t>TD11</t>
+  </si>
+  <si>
+    <t>วันปัจจุบัน</t>
+  </si>
+  <si>
+    <t>วันที่ผลิตต้องเป็นวันในอดีต</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่ผลิตต้องเป็นวันในอดีต"</t>
+  </si>
+  <si>
+    <t>TD12</t>
+  </si>
+  <si>
+    <t>TD13</t>
+  </si>
+  <si>
+    <t>กรุณาเลือกวันที่หมดอายุ</t>
+  </si>
+  <si>
+    <t>TD14</t>
+  </si>
+  <si>
+    <t>วันที่หมดอายุต้องเป็นวันในอนาคต</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่หมดอายุต้องเป็นวันในอนาคต"</t>
+  </si>
+  <si>
+    <t>TD15</t>
+  </si>
+  <si>
+    <t>TD16</t>
+  </si>
+  <si>
+    <t>กรุณากรอกจำนวนเข็ม</t>
+  </si>
+  <si>
+    <t>TD17</t>
+  </si>
+  <si>
+    <t>๑๐๐</t>
+  </si>
+  <si>
+    <t>จำนวนเข็มต้องเป็นตัวเลขอารบิก และห้ามมีช่องว่าง ตัวอักษร หรือตัวอักษรพิเศษ</t>
+  </si>
+  <si>
+    <t>จำนวนเข็มต้องเป็นตัวเลขอารบิกและมีจำนวนตัวเลข 1-10 ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD18</t>
+  </si>
+  <si>
+    <t>1 0 0</t>
+  </si>
+  <si>
+    <t>TD19</t>
+  </si>
+  <si>
+    <t>100เข็ม</t>
+  </si>
+  <si>
+    <t>TD20</t>
+  </si>
+  <si>
+    <t>100.</t>
+  </si>
+  <si>
+    <t>TD21</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>จำนวนเข็มต้องมีค่าระหว่าง 1-10000 เท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "จำนวนเข็มต้องมีค่าระหว่าง 1-10000 เท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD22</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>TD23</t>
+  </si>
+  <si>
+    <t>กรุณากรอกชื่อบริษัทผู้ผลิต</t>
+  </si>
+  <si>
+    <t>TD24</t>
+  </si>
+  <si>
+    <t>ファイザー</t>
+  </si>
+  <si>
+    <t>ชื่อบริษัทผู้ผลิตต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้ผลิตต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD25</t>
+  </si>
+  <si>
+    <t>TD26</t>
+  </si>
+  <si>
+    <t>ชื่อบริษัทผู้ผลิตต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้ผลิตต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD27</t>
+  </si>
+  <si>
+    <t>บริษัทไฟเซอร์ อิงก์ (Pfizer INC.) 2 บริษัท  ไฟเซอร์</t>
+  </si>
+  <si>
+    <t>TD28</t>
+  </si>
+  <si>
+    <t>กรุณากรอกชื่อบริษัทผู้นำเข้า</t>
+  </si>
+  <si>
+    <t>TD29</t>
+  </si>
+  <si>
+    <t>ชื่อบริษัทผู้นำเข้าต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้นำเข้าต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD30</t>
+  </si>
+  <si>
+    <t>TD31</t>
+  </si>
+  <si>
+    <t>ชื่อบริษัทผู้นำเข้าต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้นำเข้าต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD32</t>
+  </si>
+  <si>
+    <t>TD33</t>
+  </si>
+  <si>
+    <t>กรุณากรอกรุ่นการผลิต</t>
+  </si>
+  <si>
+    <t>TD34</t>
+  </si>
+  <si>
+    <t>ก1017</t>
+  </si>
+  <si>
+    <t>รุ่นการผลิตต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิก และห้ามมีช่องว่าง</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "รุ่นการผลิตต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิก และห้ามมีช่องว่าง"</t>
+  </si>
+  <si>
+    <t>TD35</t>
+  </si>
+  <si>
+    <t>A๑๐๑๗</t>
+  </si>
+  <si>
+    <t>TD36</t>
+  </si>
+  <si>
+    <t>A 1017</t>
+  </si>
+  <si>
+    <t>TD37</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>รุ่นการผลิตต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "รุ่นการผลิตต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD38</t>
+  </si>
+  <si>
+    <t>A10173213123213215251</t>
+  </si>
+  <si>
+    <t>TD39</t>
+  </si>
+  <si>
+    <t>กรุณากรอกเลขทะเบียนวัคซีน</t>
+  </si>
+  <si>
+    <t>TD40</t>
+  </si>
+  <si>
+    <t>1ก 108/50</t>
+  </si>
+  <si>
+    <t>เลขทะเบียนวัคซีนต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิกเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขทะเบียนวัคซีนต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิกเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD41</t>
+  </si>
+  <si>
+    <t>1C ๑๐๘/๕๐</t>
+  </si>
+  <si>
+    <t>TD42</t>
+  </si>
+  <si>
+    <t>1C 1</t>
+  </si>
+  <si>
+    <t>เลขทะเบียนวัคซีนต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขทะเบียนวัคซีนต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น"</t>
+  </si>
+  <si>
+    <t>TD43</t>
+  </si>
+  <si>
+    <t>1C 10823122/5011 (NB)</t>
+  </si>
+  <si>
+    <t>TD44</t>
+  </si>
+  <si>
+    <t>กรุณากรอกราคาต่อเข็ม</t>
+  </si>
+  <si>
+    <t>TD45</t>
+  </si>
+  <si>
+    <t>ราคาต่อเข็มต้องเป็นตัวเลขอารบิก และห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ</t>
+  </si>
+  <si>
+    <t>ราคาต่อเข็มต้องเป็นตัวเลขอารบิกและมีจำนวนตัวเลข 1-10 ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>TD46</t>
+  </si>
+  <si>
+    <t>TD47</t>
+  </si>
+  <si>
+    <t>100บาท</t>
+  </si>
+  <si>
+    <t>TD48</t>
+  </si>
+  <si>
+    <t>TD49</t>
+  </si>
+  <si>
+    <t>5001</t>
+  </si>
+  <si>
+    <t>ราคาต่อเข็มต้องมีค่าไม่เกิน 5000</t>
+  </si>
+  <si>
+    <t>ควรแสดงข้อความแจ้งเตือนว่า "ราคาต่อเข็มต้องมีค่าไม่เกิน 5000"</t>
+  </si>
+  <si>
+    <t>TD50</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4999</t>
+  </si>
+  <si>
+    <t>TD51</t>
+  </si>
+  <si>
+    <t>Pfizer</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>A10171</t>
+  </si>
+  <si>
+    <t>108/50</t>
+  </si>
+  <si>
+    <t>TD52</t>
+  </si>
+  <si>
+    <t>1.วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson)</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>บริษัทไฟเซอร์อิงก์ (Pfizer INC.) 2 บริษัท ไฟเซอร์</t>
+  </si>
+  <si>
+    <t>A101732131232132152</t>
+  </si>
+  <si>
+    <t>1C 1082122/501 (NB)</t>
+  </si>
+  <si>
+    <t>TD53</t>
+  </si>
+  <si>
+    <t>1. วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson)</t>
+  </si>
+  <si>
+    <t>บริษัทไฟเซอร์ อิงก์ (Pfizer INC.) 2 บริษัท ไฟเซอร์</t>
+  </si>
+  <si>
+    <t>A1017321312321321525</t>
+  </si>
+  <si>
+    <t>1C 10823122/501 (NB)</t>
+  </si>
+  <si>
     <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อวัคซีนต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD5</t>
-  </si>
-  <si>
-    <t>1. วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson).</t>
-  </si>
-  <si>
-    <t>ชื่อวัคซีนต้องมีจำนวนตัวอักษร 2-50 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD6</t>
-  </si>
-  <si>
-    <t>กรุณาเลือกวันที่นำเข้า</t>
-  </si>
-  <si>
-    <t>TD7</t>
-  </si>
-  <si>
-    <t>วันที่นำเข้าห้ามเป็นวันในอนาคต และต้องเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่นำเข้าห้ามเป็นวันในอนาคต และต้องเป็นวันที่มากกว่าวันที่ผลิต และน้อยกว่าวันที่หมดอายุ"</t>
-  </si>
-  <si>
-    <t>TD8</t>
-  </si>
-  <si>
-    <t>วันที่น้อยกว่าวันที่ผลิต</t>
-  </si>
-  <si>
-    <t>TD9</t>
-  </si>
-  <si>
-    <t>วันที่มากกว่าวันที่หมดอายุ</t>
-  </si>
-  <si>
-    <t>TD10</t>
-  </si>
-  <si>
-    <t>กรุณาเลือกวันที่ผลิต</t>
-  </si>
-  <si>
-    <t>TD11</t>
-  </si>
-  <si>
-    <t>วันปัจจุบัน</t>
-  </si>
-  <si>
-    <t>วันที่ผลิตต้องเป็นวันในอดีต</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่ผลิตต้องเป็นวันในอดีต"</t>
-  </si>
-  <si>
-    <t>TD12</t>
-  </si>
-  <si>
-    <t>TD13</t>
-  </si>
-  <si>
-    <t>กรุณาเลือกวันที่หมดอายุ</t>
-  </si>
-  <si>
-    <t>TD14</t>
-  </si>
-  <si>
-    <t>วันที่หมดอายุต้องเป็นวันในอนาคต</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "วันที่หมดอายุต้องเป็นวันในอนาคต"</t>
-  </si>
-  <si>
-    <t>TD15</t>
-  </si>
-  <si>
-    <t>TD16</t>
-  </si>
-  <si>
-    <t>กรุณากรอกจำนวนเข็ม</t>
-  </si>
-  <si>
-    <t>TD17</t>
-  </si>
-  <si>
-    <t>๑๐๐</t>
-  </si>
-  <si>
-    <t>จำนวนเข็มต้องเป็นตัวเลขอารบิก และห้ามมีช่องว่าง ตัวอักษร หรือตัวอักษรพิเศษ</t>
-  </si>
-  <si>
-    <t>จำนวนเข็มต้องเป็นตัวเลขอารบิกและมีจำนวนตัวเลข 1-10 ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD18</t>
-  </si>
-  <si>
-    <t>1 0 0</t>
-  </si>
-  <si>
-    <t>TD19</t>
-  </si>
-  <si>
-    <t>100เข็ม</t>
-  </si>
-  <si>
-    <t>TD20</t>
-  </si>
-  <si>
-    <t>100.</t>
-  </si>
-  <si>
-    <t>TD21</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>จำนวนเข็มต้องมีค่าระหว่าง 1-10000 เท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "จำนวนเข็มต้องมีค่าระหว่าง 1-10000 เท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD22</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>TD23</t>
-  </si>
-  <si>
-    <t>กรุณากรอกชื่อบริษัทผู้ผลิต</t>
-  </si>
-  <si>
-    <t>TD24</t>
-  </si>
-  <si>
-    <t>ファイザー</t>
-  </si>
-  <si>
-    <t>ชื่อบริษัทผู้ผลิตต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้ผลิตต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD25</t>
-  </si>
-  <si>
-    <t>TD26</t>
-  </si>
-  <si>
-    <t>ชื่อบริษัทผู้ผลิตต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้ผลิตต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD27</t>
-  </si>
-  <si>
-    <t>บริษัทไฟเซอร์ อิงก์ (Pfizer INC.) 2 บริษัท  ไฟเซอร์</t>
-  </si>
-  <si>
-    <t>TD28</t>
-  </si>
-  <si>
-    <t>กรุณากรอกชื่อบริษัทผู้นำเข้า</t>
-  </si>
-  <si>
-    <t>TD29</t>
-  </si>
-  <si>
-    <t>ชื่อบริษัทผู้นำเข้าต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้นำเข้าต้องเป็นภาษาไทยหรือภาษาอังกฤษ และเป็นตัวเลขอารบิกเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD30</t>
-  </si>
-  <si>
-    <t>TD31</t>
-  </si>
-  <si>
-    <t>ชื่อบริษัทผู้นำเข้าต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ชื่อบริษัทผู้นำเข้าต้องมีจำนวนตัวอักษร 5-50 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD32</t>
-  </si>
-  <si>
-    <t>TD33</t>
-  </si>
-  <si>
-    <t>กรุณากรอกรุ่นการผลิต</t>
-  </si>
-  <si>
-    <t>TD34</t>
-  </si>
-  <si>
-    <t>ก1017</t>
-  </si>
-  <si>
-    <t>รุ่นการผลิตต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิก และห้ามมีช่องว่าง</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "รุ่นการผลิตต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิก และห้ามมีช่องว่าง"</t>
-  </si>
-  <si>
-    <t>TD35</t>
-  </si>
-  <si>
-    <t>A๑๐๑๗</t>
-  </si>
-  <si>
-    <t>TD36</t>
-  </si>
-  <si>
-    <t>A 1017</t>
-  </si>
-  <si>
-    <t>TD37</t>
-  </si>
-  <si>
-    <t>A101</t>
-  </si>
-  <si>
-    <t>รุ่นการผลิตต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "รุ่นการผลิตต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD38</t>
-  </si>
-  <si>
-    <t>A10173213123213215251</t>
-  </si>
-  <si>
-    <t>TD39</t>
-  </si>
-  <si>
-    <t>กรุณากรอกเลขทะเบียนวัคซีน</t>
-  </si>
-  <si>
-    <t>TD40</t>
-  </si>
-  <si>
-    <t>1ก 108/50</t>
-  </si>
-  <si>
-    <t>เลขทะเบียนวัคซีนต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิกเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขทะเบียนวัคซีนต้องเป็นตัวอักษรภาษาอังกฤษ หรือเป็นตัวเลขอารบิกเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD41</t>
-  </si>
-  <si>
-    <t>1C ๑๐๘/๕๐</t>
-  </si>
-  <si>
-    <t>TD42</t>
-  </si>
-  <si>
-    <t>1C 1</t>
-  </si>
-  <si>
-    <t>เลขทะเบียนวัคซีนต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "เลขทะเบียนวัคซีนต้องมีจำนวนตัวอักษร 5-20 ตัวอักษรเท่านั้น"</t>
-  </si>
-  <si>
-    <t>TD43</t>
-  </si>
-  <si>
-    <t>1C 10823122/5011 (NB)</t>
-  </si>
-  <si>
-    <t>TD44</t>
-  </si>
-  <si>
-    <t>กรุณากรอกราคาต่อเข็ม</t>
-  </si>
-  <si>
-    <t>TD45</t>
-  </si>
-  <si>
-    <t>ราคาต่อเข็มต้องเป็นตัวเลขอารบิก และห้ามมีช่องว่าง ตัวอักษรหรือตัวอักษรพิเศษ</t>
-  </si>
-  <si>
-    <t>ราคาต่อเข็มต้องเป็นตัวเลขอารบิกและมีจำนวนตัวเลข 1-10 ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>TD46</t>
-  </si>
-  <si>
-    <t>TD47</t>
-  </si>
-  <si>
-    <t>100บาท</t>
-  </si>
-  <si>
-    <t>TD48</t>
-  </si>
-  <si>
-    <t>TD49</t>
-  </si>
-  <si>
-    <t>5001</t>
-  </si>
-  <si>
-    <t>ราคาต่อเข็มต้องมีค่าไม่เกิน 5000</t>
-  </si>
-  <si>
-    <t>ควรแสดงข้อความแจ้งเตือนว่า "ราคาต่อเข็มต้องมีค่าไม่เกิน 5000"</t>
-  </si>
-  <si>
-    <t>TD50</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4999</t>
-  </si>
-  <si>
-    <t>TD51</t>
-  </si>
-  <si>
-    <t>Pfizer</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>A10171</t>
-  </si>
-  <si>
-    <t>108/50</t>
-  </si>
-  <si>
-    <t>TD52</t>
-  </si>
-  <si>
-    <t>1.วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson)</t>
-  </si>
-  <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>บริษัทไฟเซอร์อิงก์ (Pfizer INC.) 2 บริษัท ไฟเซอร์</t>
-  </si>
-  <si>
-    <t>A101732131232132152</t>
-  </si>
-  <si>
-    <t>1C 1082122/501 (NB)</t>
-  </si>
-  <si>
-    <t>TD53</t>
-  </si>
-  <si>
-    <t>1. วัคซีนจอห์นสันแอนด์จอห์นสัน (Johnson &amp; Johnson)</t>
-  </si>
-  <si>
-    <t>บริษัทไฟเซอร์ อิงก์ (Pfizer INC.) 2 บริษัท ไฟเซอร์</t>
-  </si>
-  <si>
-    <t>A1017321312321321525</t>
-  </si>
-  <si>
-    <t>1C 10823122/501 (NB)</t>
   </si>
   <si>
     <t>ควรแสดงข้อความแจ้งเตือนว่า "เพิ่มวัคซีนสำเร็จ"</t>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O39" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="T57" sqref="T57"/>
+    <sheetView tabSelected="1" topLeftCell="P39" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="T55" sqref="T55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -1316,24 +1316,24 @@
         <v>18</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>24</v>
@@ -1366,7 +1366,7 @@
         <v>45</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>40</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
@@ -1423,10 +1423,10 @@
         <v>31</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>33</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -1485,7 +1485,7 @@
         <v>31</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>46</v>
@@ -1500,27 +1500,27 @@
         <v>18</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>25</v>
@@ -1547,7 +1547,7 @@
         <v>31</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>46</v>
@@ -1562,27 +1562,27 @@
         <v>18</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>25</v>
@@ -1609,7 +1609,7 @@
         <v>31</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>46</v>
@@ -1624,12 +1624,12 @@
         <v>18</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
@@ -1669,10 +1669,10 @@
         <v>31</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>33</v>
@@ -1689,25 +1689,25 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>26</v>
@@ -1731,7 +1731,7 @@
         <v>31</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>46</v>
@@ -1746,12 +1746,12 @@
         <v>18</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
@@ -1793,7 +1793,7 @@
         <v>31</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>46</v>
@@ -1808,12 +1808,12 @@
         <v>18</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>21</v>
@@ -1853,10 +1853,10 @@
         <v>31</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>33</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -1894,7 +1894,7 @@
         <v>25</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>27</v>
@@ -1915,7 +1915,7 @@
         <v>31</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>46</v>
@@ -1930,12 +1930,12 @@
         <v>18</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -1977,7 +1977,7 @@
         <v>31</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>46</v>
@@ -1992,12 +1992,12 @@
         <v>18</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>21</v>
@@ -2037,10 +2037,10 @@
         <v>31</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>33</v>
@@ -2057,31 +2057,31 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>28</v>
@@ -2099,10 +2099,10 @@
         <v>31</v>
       </c>
       <c r="O18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>40</v>
@@ -2119,31 +2119,31 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>28</v>
@@ -2161,10 +2161,10 @@
         <v>31</v>
       </c>
       <c r="O19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="Q19" s="8" t="s">
         <v>40</v>
@@ -2181,31 +2181,31 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>28</v>
@@ -2223,10 +2223,10 @@
         <v>31</v>
       </c>
       <c r="O20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="Q20" s="8" t="s">
         <v>40</v>
@@ -2243,31 +2243,31 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>28</v>
@@ -2285,10 +2285,10 @@
         <v>31</v>
       </c>
       <c r="O21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="Q21" s="8" t="s">
         <v>40</v>
@@ -2305,31 +2305,31 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>28</v>
@@ -2347,7 +2347,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>46</v>
@@ -2362,36 +2362,36 @@
         <v>18</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>28</v>
@@ -2409,7 +2409,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>46</v>
@@ -2424,12 +2424,12 @@
         <v>18</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>21</v>
@@ -2469,10 +2469,10 @@
         <v>31</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>33</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>21</v>
@@ -2516,7 +2516,7 @@
         <v>27</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>28</v>
@@ -2531,7 +2531,7 @@
         <v>31</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>46</v>
@@ -2546,12 +2546,12 @@
         <v>18</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>21</v>
@@ -2593,7 +2593,7 @@
         <v>31</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>46</v>
@@ -2608,12 +2608,12 @@
         <v>18</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
@@ -2655,7 +2655,7 @@
         <v>31</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>46</v>
@@ -2670,12 +2670,12 @@
         <v>18</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
@@ -2702,7 +2702,7 @@
         <v>27</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>28</v>
@@ -2717,7 +2717,7 @@
         <v>31</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>46</v>
@@ -2732,12 +2732,12 @@
         <v>18</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>21</v>
@@ -2777,10 +2777,10 @@
         <v>31</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="9" t="s">
         <v>33</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>21</v>
@@ -2827,7 +2827,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>29</v>
@@ -2839,7 +2839,7 @@
         <v>31</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>46</v>
@@ -2854,12 +2854,12 @@
         <v>18</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
@@ -2901,7 +2901,7 @@
         <v>31</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>46</v>
@@ -2916,12 +2916,12 @@
         <v>18</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>21</v>
@@ -2963,7 +2963,7 @@
         <v>31</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>46</v>
@@ -2978,12 +2978,12 @@
         <v>18</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>21</v>
@@ -3013,7 +3013,7 @@
         <v>28</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>29</v>
@@ -3025,7 +3025,7 @@
         <v>31</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>46</v>
@@ -3040,12 +3040,12 @@
         <v>18</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>21</v>
@@ -3085,10 +3085,10 @@
         <v>31</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q34" s="9" t="s">
         <v>33</v>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>21</v>
@@ -3138,16 +3138,16 @@
         <v>28</v>
       </c>
       <c r="L35" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>46</v>
@@ -3162,12 +3162,12 @@
         <v>18</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>21</v>
@@ -3200,7 +3200,7 @@
         <v>28</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>30</v>
@@ -3209,7 +3209,7 @@
         <v>31</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>46</v>
@@ -3224,12 +3224,12 @@
         <v>18</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>21</v>
@@ -3262,7 +3262,7 @@
         <v>28</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>30</v>
@@ -3271,7 +3271,7 @@
         <v>31</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>46</v>
@@ -3286,12 +3286,12 @@
         <v>18</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>21</v>
@@ -3324,16 +3324,16 @@
         <v>28</v>
       </c>
       <c r="L38" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>46</v>
@@ -3348,12 +3348,12 @@
         <v>18</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>21</v>
@@ -3386,7 +3386,7 @@
         <v>28</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>30</v>
@@ -3395,7 +3395,7 @@
         <v>31</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>46</v>
@@ -3410,12 +3410,12 @@
         <v>18</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>21</v>
@@ -3455,10 +3455,10 @@
         <v>31</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q40" s="9" t="s">
         <v>33</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
@@ -3511,13 +3511,13 @@
         <v>29</v>
       </c>
       <c r="M41" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>46</v>
@@ -3532,12 +3532,12 @@
         <v>18</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>21</v>
@@ -3573,13 +3573,13 @@
         <v>29</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>46</v>
@@ -3594,12 +3594,12 @@
         <v>18</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>21</v>
@@ -3635,13 +3635,13 @@
         <v>29</v>
       </c>
       <c r="M43" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>46</v>
@@ -3656,12 +3656,12 @@
         <v>18</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>21</v>
@@ -3697,13 +3697,13 @@
         <v>29</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>31</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>46</v>
@@ -3718,12 +3718,12 @@
         <v>18</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>21</v>
@@ -3763,10 +3763,10 @@
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q45" s="9" t="s">
         <v>33</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>21</v>
@@ -3822,13 +3822,13 @@
         <v>30</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O46" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P46" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="Q46" s="8" t="s">
         <v>40</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>21</v>
@@ -3884,13 +3884,13 @@
         <v>30</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O47" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P47" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="Q47" s="8" t="s">
         <v>40</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>21</v>
@@ -3946,13 +3946,13 @@
         <v>30</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P48" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="Q48" s="8" t="s">
         <v>40</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>21</v>
@@ -4008,13 +4008,13 @@
         <v>30</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P49" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="Q49" s="8" t="s">
         <v>40</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>21</v>
@@ -4070,10 +4070,10 @@
         <v>30</v>
       </c>
       <c r="N50" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="O50" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>46</v>
@@ -4088,36 +4088,36 @@
         <v>18</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>28</v>
@@ -4132,7 +4132,7 @@
         <v>30</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>46</v>
@@ -4155,43 +4155,43 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="4" t="s">
+      <c r="J52" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L52" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L52" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>31</v>
@@ -4217,43 +4217,43 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="K53" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L53" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="K53" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L53" s="4" t="s">
+      <c r="M53" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>31</v>
@@ -4279,19 +4279,19 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>24</v>
@@ -4306,16 +4306,16 @@
         <v>27</v>
       </c>
       <c r="J54" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L54" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K54" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>31</v>
